--- a/teaching/traditional_assets/database/data/france/france_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.000449999999999999</v>
+        <v>0.0244</v>
       </c>
       <c r="E2">
-        <v>0.1105</v>
+        <v>0.1585</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.005271683384629861</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004759201230893727</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>53.66</v>
+        <v>68.32000000000001</v>
       </c>
       <c r="L2">
-        <v>0.05581443727896817</v>
+        <v>0.06338250301512201</v>
       </c>
       <c r="M2">
-        <v>42.25</v>
+        <v>18.753</v>
       </c>
       <c r="N2">
-        <v>0.09802784222737819</v>
+        <v>0.02760229614365617</v>
       </c>
       <c r="O2">
-        <v>0.7873648900484532</v>
+        <v>0.2744877049180328</v>
       </c>
       <c r="P2">
-        <v>20.85</v>
+        <v>18.5</v>
       </c>
       <c r="Q2">
-        <v>0.04837587006960557</v>
+        <v>0.02722990874300854</v>
       </c>
       <c r="R2">
-        <v>0.3885575847931421</v>
+        <v>0.2707845433255269</v>
       </c>
       <c r="S2">
-        <v>21.4</v>
+        <v>0.2530000000000001</v>
       </c>
       <c r="T2">
-        <v>0.506508875739645</v>
+        <v>0.01349117474537408</v>
       </c>
       <c r="U2">
-        <v>442.4</v>
+        <v>462.4</v>
       </c>
       <c r="V2">
-        <v>1.026450116009281</v>
+        <v>0.6806005298793053</v>
       </c>
       <c r="W2">
-        <v>0.07191828254847646</v>
+        <v>0.1166236779489123</v>
       </c>
       <c r="X2">
-        <v>0.07834274961702342</v>
+        <v>0.04554896790699149</v>
       </c>
       <c r="Y2">
-        <v>-0.006424467068546963</v>
+        <v>0.07107471004192077</v>
       </c>
       <c r="Z2">
-        <v>1.547253636296765</v>
+        <v>1.658818097876269</v>
       </c>
       <c r="AA2">
-        <v>0.004971742552814986</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0424128777302039</v>
+        <v>0.0317500808745322</v>
       </c>
       <c r="AC2">
-        <v>-0.03744113517738891</v>
+        <v>-0.0317500808745322</v>
       </c>
       <c r="AD2">
-        <v>718.9</v>
+        <v>707.5</v>
       </c>
       <c r="AE2">
-        <v>91.65901797008425</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>810.5590179700843</v>
+        <v>707.5</v>
       </c>
       <c r="AG2">
-        <v>368.1590179700843</v>
+        <v>245.1</v>
       </c>
       <c r="AH2">
-        <v>0.652855809702326</v>
+        <v>0.5101305068858605</v>
       </c>
       <c r="AI2">
-        <v>0.5702704297241419</v>
+        <v>0.5291697830964847</v>
       </c>
       <c r="AJ2">
-        <v>0.4606830551762177</v>
+        <v>0.2651162790697675</v>
       </c>
       <c r="AK2">
-        <v>0.3760719409209576</v>
+        <v>0.2802423965241254</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-3.75</v>
-      </c>
-      <c r="AN2">
-        <v>30.72222222222222</v>
-      </c>
-      <c r="AP2">
-        <v>15.73329136624292</v>
+        <v>-2.78</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIEL &amp; Cie, société anonyme (ENXTPA:VIL)</t>
+          <t>Bourse Direct SA (ENXTPA:BSD)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0302</v>
+        <v>0.014</v>
       </c>
       <c r="E3">
-        <v>0.434</v>
+        <v>0.146</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,106 +728,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.005476762919800246</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.004617789490161764</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>52.3</v>
+        <v>5.62</v>
       </c>
       <c r="L3">
-        <v>0.05651610114545062</v>
+        <v>0.1260089686098655</v>
       </c>
       <c r="M3">
-        <v>41</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1142061281337047</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.7839388145315488</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>19.6</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.05459610027855154</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.3747609942638624</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>21.4</v>
-      </c>
-      <c r="T3">
-        <v>0.5219512195121951</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>442.4</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.232311977715877</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.125</v>
+        <v>0.08017118402282454</v>
       </c>
       <c r="X3">
-        <v>0.07524258229512246</v>
+        <v>0.04138898506027669</v>
       </c>
       <c r="Y3">
-        <v>0.04975741770487754</v>
+        <v>0.03878219896254785</v>
       </c>
       <c r="Z3">
-        <v>2.153299782680575</v>
+        <v>0.210576015108593</v>
       </c>
       <c r="AA3">
-        <v>0.009943485105629972</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04108574175292686</v>
+        <v>0.03163314704728253</v>
       </c>
       <c r="AC3">
-        <v>-0.03114225664729689</v>
+        <v>-0.03163314704728253</v>
       </c>
       <c r="AD3">
-        <v>561.8</v>
+        <v>133.5</v>
       </c>
       <c r="AE3">
-        <v>91.65901797008425</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>653.4590179700842</v>
+        <v>133.5</v>
       </c>
       <c r="AG3">
-        <v>211.0590179700843</v>
+        <v>133.5</v>
       </c>
       <c r="AH3">
-        <v>0.6454177466661593</v>
+        <v>0.3997005988023952</v>
       </c>
       <c r="AI3">
-        <v>0.5472127314173618</v>
+        <v>0.6443050193050194</v>
       </c>
       <c r="AJ3">
-        <v>0.3702406440681205</v>
+        <v>0.3997005988023952</v>
       </c>
       <c r="AK3">
-        <v>0.2807535565585769</v>
+        <v>0.6443050193050194</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-3.75</v>
-      </c>
-      <c r="AN3">
-        <v>24.00854700854701</v>
-      </c>
-      <c r="AP3">
-        <v>9.019616152567703</v>
-      </c>
-      <c r="AQ3">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bourse Direct SA (ENXTPA:BSD)</t>
+          <t>VIEL &amp; Cie, société anonyme (ENXTPA:VIL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0293</v>
+        <v>0.0348</v>
       </c>
       <c r="E4">
-        <v>-0.213</v>
+        <v>0.171</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -871,91 +853,94 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.36</v>
+        <v>62.7</v>
       </c>
       <c r="L4">
-        <v>0.03777777777777778</v>
+        <v>0.06067937675408885</v>
       </c>
       <c r="M4">
-        <v>1.25</v>
+        <v>18.753</v>
       </c>
       <c r="N4">
-        <v>0.01736111111111111</v>
+        <v>0.03915848820212988</v>
       </c>
       <c r="O4">
-        <v>0.9191176470588235</v>
+        <v>0.2990909090909091</v>
       </c>
       <c r="P4">
-        <v>1.25</v>
+        <v>18.5</v>
       </c>
       <c r="Q4">
-        <v>0.01736111111111111</v>
+        <v>0.03863019419503028</v>
       </c>
       <c r="R4">
-        <v>0.9191176470588235</v>
+        <v>0.2950558213716108</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.2530000000000001</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.01349117474537408</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>462.4</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.9655460430152433</v>
       </c>
       <c r="W4">
-        <v>0.01883656509695291</v>
+        <v>0.153076171875</v>
       </c>
       <c r="X4">
-        <v>0.08144291693892437</v>
+        <v>0.04970895075370629</v>
       </c>
       <c r="Y4">
-        <v>-0.06260635184197147</v>
+        <v>0.1033672211212937</v>
       </c>
       <c r="Z4">
-        <v>0.1878914405010439</v>
+        <v>2.359132420091324</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04374001370748094</v>
+        <v>0.03186701470178187</v>
       </c>
       <c r="AC4">
-        <v>-0.04374001370748094</v>
+        <v>-0.03186701470178187</v>
       </c>
       <c r="AD4">
-        <v>157.1</v>
+        <v>574</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>157.1</v>
+        <v>574</v>
       </c>
       <c r="AG4">
-        <v>157.1</v>
+        <v>111.6</v>
       </c>
       <c r="AH4">
-        <v>0.6857267568747272</v>
+        <v>0.545160983949093</v>
       </c>
       <c r="AI4">
-        <v>0.6914612676056339</v>
+        <v>0.5080545229244114</v>
       </c>
       <c r="AJ4">
-        <v>0.6857267568747272</v>
+        <v>0.1889923793395428</v>
       </c>
       <c r="AK4">
-        <v>0.6914612676056339</v>
+        <v>0.1672160623314355</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-2.78</v>
+      </c>
+      <c r="AQ4">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
